--- a/LFI plugin/LFAnalyze Parameters.xlsx
+++ b/LFI plugin/LFAnalyze Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\PFLMRepos\PolarizedLightFieldMicroscopy\Documents\LFI plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE691A6-DE47-4637-BBA2-72E957EBFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F57D15-6A3D-400E-B86F-F28A28A31307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E057C23C-A551-4956-80E1-6B86F78F6994}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="271">
   <si>
     <t>LFAnalyze Input Arguments.</t>
   </si>
@@ -530,9 +530,6 @@
     <t xml:space="preserve">						</t>
   </si>
   <si>
-    <t xml:space="preserve">						   </t>
-  </si>
-  <si>
     <t xml:space="preserve">    "--private-key"</t>
   </si>
   <si>
@@ -629,9 +626,6 @@
     <t xml:space="preserve">	# Generic parameters for iterative reconstruction routines</t>
   </si>
   <si>
-    <t xml:space="preserve">	"--lambda"</t>
-  </si>
-  <si>
     <t xml:space="preserve"> dest="regularization_lambda"</t>
   </si>
   <si>
@@ -849,6 +843,9 @@
   </si>
   <si>
     <t xml:space="preserve"> help="Specify the shape of the microlens apertures.  Options include: ['rect',  'circ']"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "--lambda"</t>
   </si>
 </sst>
 </file>
@@ -1230,15 +1227,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704EA771-C5A9-48D4-8E87-628473E53D01}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="28.109375" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
@@ -1253,22 +1250,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" t="s">
         <v>257</v>
       </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1287,7 +1284,7 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1362,7 +1359,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1431,7 +1428,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1482,7 +1479,7 @@
         <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1685,7 +1682,7 @@
         <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1710,7 +1707,7 @@
         <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,11 +1729,11 @@
         <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1844,7 +1841,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1921,7 +1918,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1981,7 +1978,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2105,7 +2102,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2127,7 +2124,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2156,7 +2153,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2238,8 +2235,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>270</v>
+      <c r="B99" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2293,146 +2290,163 @@
         <v>164</v>
       </c>
     </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
+      </c>
+      <c r="F107" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>165</v>
-      </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
-      </c>
-      <c r="D109" t="s">
-        <v>168</v>
-      </c>
-      <c r="E109" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" t="s">
-        <v>172</v>
-      </c>
-      <c r="F111" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>11</v>
+      <c r="C113" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>174</v>
-      </c>
-      <c r="C115" t="s">
-        <v>175</v>
-      </c>
-      <c r="D115" t="s">
-        <v>176</v>
-      </c>
-      <c r="F115" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>13</v>
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" t="s">
+        <v>188</v>
+      </c>
+      <c r="F127" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D129" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E129" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -2442,10 +2456,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D131" t="s">
         <v>23</v>
@@ -2454,28 +2468,16 @@
         <v>25</v>
       </c>
       <c r="F131" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
-        <v>194</v>
-      </c>
-      <c r="C133" t="s">
-        <v>195</v>
-      </c>
-      <c r="D133" t="s">
-        <v>23</v>
-      </c>
-      <c r="E133" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2484,22 +2486,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" t="s">
         <v>197</v>
       </c>
+      <c r="D135" t="s">
+        <v>49</v>
+      </c>
+      <c r="E135" t="s">
+        <v>100</v>
+      </c>
+      <c r="F135" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>3</v>
+      <c r="B136" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D137" t="s">
         <v>49</v>
@@ -2508,157 +2522,157 @@
         <v>100</v>
       </c>
       <c r="F137" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="G137" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="F139" t="s">
-        <v>203</v>
-      </c>
-      <c r="G139" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D141" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F141" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>210</v>
-      </c>
-      <c r="C143" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
         <v>211</v>
       </c>
-      <c r="D143" t="s">
+      <c r="C145" t="s">
+        <v>212</v>
+      </c>
+      <c r="D145" t="s">
         <v>49</v>
       </c>
-      <c r="E143" t="s">
-        <v>212</v>
-      </c>
-      <c r="F143" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>14</v>
+      <c r="E145" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D147" t="s">
         <v>49</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F147" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B149" t="s">
-        <v>216</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
         <v>217</v>
       </c>
-      <c r="D149" t="s">
-        <v>49</v>
-      </c>
-      <c r="E149" t="s">
-        <v>84</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="C151" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>15</v>
+      <c r="D151" t="s">
+        <v>219</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="F153" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,16 +2680,16 @@
         <v>222</v>
       </c>
       <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" t="s">
         <v>223</v>
       </c>
-      <c r="D155" t="s">
-        <v>63</v>
-      </c>
       <c r="E155" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="F155" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -2685,19 +2699,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
         <v>23</v>
       </c>
       <c r="D157" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E157" t="s">
         <v>25</v>
       </c>
       <c r="F157" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,19 +2721,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>227</v>
-      </c>
-      <c r="C159" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="D159" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,16 +2740,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
+        <v>229</v>
+      </c>
+      <c r="C161" t="s">
         <v>230</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
-      </c>
-      <c r="E161" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="F161" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -2748,16 +2759,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C163" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D163" t="s">
-        <v>233</v>
+        <v>49</v>
+      </c>
+      <c r="E163" t="s">
+        <v>234</v>
       </c>
       <c r="F163" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -2767,19 +2781,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C165" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D165" t="s">
-        <v>49</v>
-      </c>
-      <c r="E165" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F165" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -2789,16 +2800,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C167" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D167" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F167" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -2808,16 +2819,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>244</v>
       </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
       <c r="F169" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,19 +2841,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D171" t="s">
-        <v>246</v>
-      </c>
-      <c r="E171" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F171" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -2849,42 +2860,23 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C173" t="s">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>63</v>
+        <v>250</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
       </c>
       <c r="F173" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>251</v>
-      </c>
-      <c r="C175" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" t="s">
-        <v>252</v>
-      </c>
-      <c r="E175" t="s">
-        <v>25</v>
-      </c>
-      <c r="F175" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+      <c r="A174" t="s">
         <v>16</v>
       </c>
     </row>
